--- a/02.Tasks/03.xlsx
+++ b/02.Tasks/03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\excel\02.Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2302949A-0105-4888-A3B0-29B9312184C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23B537A-B97F-4D9E-BAE0-52E9426CCA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,11 +110,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,99 +409,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C3" s="2">
         <v>100000</v>
       </c>
-      <c r="D3" s="3">
-        <f>IF(C3=MAX($C$3,$C$4,$C$5,$C$6,$C$7),C3-B3,B3)</f>
+      <c r="D3" s="2">
+        <f>IF(C3=MAX($C$3,$C$4,$C$5,$C$6,$C$7),C3+B3,B3)</f>
         <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="2">
         <v>95000</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D6" si="0">IF(C4=MAX($C$3,$C$4,$C$5,$C$6,$C$7),C4-B4,B4)</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D7" si="0">IF(C4=MAX($C$3,$C$4,$C$5,$C$6,$C$7),C4+B4,B4)</f>
         <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C5" s="2">
         <v>120000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>116000</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="2">
         <v>50000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="2">
         <v>90000</v>
       </c>
-      <c r="D7" s="3">
-        <f>IF(C7=MAX($C$3,$C$4,$C$5,$C$6,$C$7),C7-B7,B7)</f>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
